--- a/main/input_2d.xlsx
+++ b/main/input_2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-modified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA03B3-CC83-4196-B5BF-B23A3E85BF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1AE9FF-BFE5-4E7A-A3A5-B3C90F50EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ForceX</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>k</t>
-  </si>
-  <si>
-    <t>1, 0.01, 0</t>
-  </si>
-  <si>
-    <t>0, 0.99, 0</t>
   </si>
   <si>
     <t>Penalty Increase</t>
@@ -588,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,10 +606,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
@@ -623,10 +617,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>21</v>
@@ -634,7 +628,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -645,7 +639,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
         <v>0.2</v>
@@ -667,21 +661,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5">
         <v>0.1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -717,12 +711,12 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -733,7 +727,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -744,11 +738,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>26</v>
@@ -787,7 +780,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +992,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,26 +1018,12 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07854D32-7C5D-4986-8471-E867DCA251D5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,12 +1086,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
